--- a/Tabla pivoteada a tabla tabulada.xlsx
+++ b/Tabla pivoteada a tabla tabulada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfredo Diaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiaz\Documents\curso powerbi básico\Manuelita\Power Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4E82E9-BA92-4A24-A8D8-717BF8F51F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760F60E2-421F-4322-B0C8-A8D2D05CB756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{79C924EC-010A-4381-B8A7-5E8B56BC2610}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{79C924EC-010A-4381-B8A7-5E8B56BC2610}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -344,15 +344,17 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,15 +367,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,7 +693,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,33 +713,33 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="16"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
@@ -826,7 +826,9 @@
       <c r="N3" s="6">
         <v>12303071</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6">
+        <v>22</v>
+      </c>
       <c r="P3" s="6">
         <v>13054825.74</v>
       </c>
@@ -872,7 +874,9 @@
       <c r="N4" s="6">
         <v>7115183</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <v>12</v>
+      </c>
       <c r="P4" s="6">
         <v>14347921.439999999</v>
       </c>
@@ -918,7 +922,9 @@
       <c r="N5" s="6">
         <v>6822085</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>12</v>
+      </c>
       <c r="P5" s="6">
         <v>5631140.2400000002</v>
       </c>
@@ -964,7 +970,9 @@
       <c r="N6" s="6">
         <v>1451751.2000000002</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6">
+        <v>43</v>
+      </c>
       <c r="P6" s="6">
         <v>10615976</v>
       </c>
@@ -1010,7 +1018,9 @@
       <c r="N7" s="6">
         <v>14018720</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <v>45</v>
+      </c>
       <c r="P7" s="7">
         <v>9219667</v>
       </c>
@@ -1056,7 +1066,9 @@
       <c r="N8" s="6">
         <v>1535928</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6">
+        <v>6</v>
+      </c>
       <c r="P8" s="7">
         <v>7922163</v>
       </c>
@@ -1102,7 +1114,9 @@
       <c r="N9" s="6">
         <v>14222696</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6">
+        <v>7</v>
+      </c>
       <c r="P9" s="7">
         <v>18264805</v>
       </c>
@@ -1148,7 +1162,9 @@
       <c r="N10" s="6">
         <v>8860495</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <v>6</v>
+      </c>
       <c r="P10" s="6">
         <v>2336745.6</v>
       </c>
@@ -1194,7 +1210,9 @@
       <c r="N11" s="6">
         <v>2772302.5</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>4</v>
+      </c>
       <c r="P11" s="6">
         <v>8188664.5</v>
       </c>
@@ -1240,7 +1258,9 @@
       <c r="N12" s="6">
         <v>12277085</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <v>2</v>
+      </c>
       <c r="P12" s="6">
         <v>12400975.859999999</v>
       </c>
@@ -1286,7 +1306,9 @@
       <c r="N13" s="6">
         <v>950001.10000000009</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>23</v>
+      </c>
       <c r="P13" s="6">
         <v>1443230.7000000002</v>
       </c>
@@ -1332,7 +1354,9 @@
       <c r="N14" s="9">
         <v>13557194</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
       <c r="P14" s="10">
         <v>14282298</v>
       </c>
